--- a/_national.WASH.xlsx
+++ b/_national.WASH.xlsx
@@ -1,131 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/sudanS3M/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3AB0C2-BFD2-D746-87A6-ADA8C25EFACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="national" sheetId="1" r:id="rId1"/>
+    <sheet name="national" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
-  <si>
-    <t>Indicator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Estimator</t>
-  </si>
-  <si>
-    <t>LCL</t>
-  </si>
-  <si>
-    <t>UCL</t>
-  </si>
-  <si>
-    <t>WASH: Uses improved drinking water sources</t>
-  </si>
-  <si>
-    <t>Proportion</t>
-  </si>
-  <si>
-    <t>WASH: Public pipe network in house</t>
-  </si>
-  <si>
-    <t>WASH: Public pipe network in yard</t>
-  </si>
-  <si>
-    <t>WASH: Public water pipe</t>
-  </si>
-  <si>
-    <t>WASH: Protected ground water</t>
-  </si>
-  <si>
-    <t>WASH: Protected well</t>
-  </si>
-  <si>
-    <t>WASH: Filtered surface water</t>
-  </si>
-  <si>
-    <t>WASH: Trucked from improved sources</t>
-  </si>
-  <si>
-    <t>WASH: Bottled water</t>
-  </si>
-  <si>
-    <t>WASH: Unfiltered surface water</t>
-  </si>
-  <si>
-    <t>WASH: Unprotected well</t>
-  </si>
-  <si>
-    <t>WASH: Trucked from unprotected sources</t>
-  </si>
-  <si>
-    <t>WASH: Uses basic drinking water sources (within 30 minutes)</t>
-  </si>
-  <si>
-    <t>WASH: Public pipe network in house within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH: Public pipe network in yard within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH: Public water pipe within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH: Protected ground water within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH: Protected well within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH: Filtered surface water within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH: Trucked from improved sources within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH: Bottled water within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH: Unfiltered surface water within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH: Unprotected well within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH: Trucked from unprotected sources within 30 minutes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t xml:space="preserve">Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Uses improved drinking water sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Public pipe network in house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Public pipe network in yard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Public water pipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Protected ground water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Protected well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Filtered surface water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Trucked from improved sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Bottled water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Unfiltered surface water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Unprotected well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Trucked from unprotected sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Uses basic drinking water sources (within 30 minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Public pipe network in house within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Public pipe network in yard within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Public water pipe within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Protected ground water within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Protected well within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Filtered surface water within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Trucked from improved sources within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Bottled water within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Unfiltered surface water within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Unprotected well within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH: Trucked from unprotected sources within 30 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -153,23 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -451,448 +426,440 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>80.95</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>73.14</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>88.76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>35.17</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>23.82</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>46.52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4">
+      <c r="C4" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E4" t="n">
         <v>11.93</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>1.02</v>
       </c>
-      <c r="D5">
-        <v>0.01</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E5" t="n">
         <v>3.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>23.94</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>11.05</v>
       </c>
-      <c r="E6">
-        <v>36.840000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" t="n">
+        <v>36.84</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>12.57</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>3.35</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>21.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>9.92</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>1.22</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>18.62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>3.4</v>
       </c>
-      <c r="D9">
-        <v>0.01</v>
-      </c>
-      <c r="E9">
+      <c r="D9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E9" t="n">
         <v>9.4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0.02</v>
       </c>
-      <c r="D10">
-        <v>0.01</v>
-      </c>
-      <c r="E10">
+      <c r="D10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D11">
-        <v>0.01</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E11" t="n">
         <v>11.09</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>0.21</v>
       </c>
-      <c r="D12">
-        <v>0.01</v>
-      </c>
-      <c r="E12">
+      <c r="D12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E12" t="n">
         <v>1.57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>0.2</v>
       </c>
-      <c r="D13">
-        <v>0.01</v>
-      </c>
-      <c r="E13">
+      <c r="D13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E13" t="n">
         <v>1.41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>70.52</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>58.96</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>82.08</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>35.119999999999997</v>
-      </c>
-      <c r="D15">
+      <c r="C15" t="n">
+        <v>35.12</v>
+      </c>
+      <c r="D15" t="n">
         <v>23.94</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>46.29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>3.97</v>
       </c>
-      <c r="D16">
-        <v>0.01</v>
-      </c>
-      <c r="E16">
+      <c r="D16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E16" t="n">
         <v>9.93</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0.88</v>
       </c>
-      <c r="D17">
-        <v>0.01</v>
-      </c>
-      <c r="E17">
+      <c r="D17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E17" t="n">
         <v>2.87</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="D18">
+      <c r="C18" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="D18" t="n">
         <v>7.83</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>32.15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>8.83</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>0.92</v>
       </c>
-      <c r="E19">
-        <v>16.739999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" t="n">
+        <v>16.74</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>7.67</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>0.34</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>1.71</v>
       </c>
-      <c r="D21">
-        <v>0.01</v>
-      </c>
-      <c r="E21">
+      <c r="D21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E21" t="n">
         <v>5.95</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>0.02</v>
       </c>
-      <c r="D22">
-        <v>0.01</v>
-      </c>
-      <c r="E22">
+      <c r="D22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>3.37</v>
       </c>
-      <c r="D23">
-        <v>0.01</v>
-      </c>
-      <c r="E23">
+      <c r="D23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E23" t="n">
         <v>9.15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>0.17</v>
       </c>
-      <c r="D24">
-        <v>0.01</v>
-      </c>
-      <c r="E24">
+      <c r="D24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E24" t="n">
         <v>1.39</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>0.11</v>
       </c>
-      <c r="D25">
-        <v>0.01</v>
-      </c>
-      <c r="E25">
+      <c r="D25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E25" t="n">
         <v>1.08</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>